--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -699,21 +699,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -729,13 +714,88 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -747,97 +807,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1159,26 +1159,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1204,18 +1204,18 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A4" s="35">
+      <c r="A4" s="30">
         <v>43253</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="33" t="s">
         <v>23</v>
       </c>
       <c r="G4" s="2"/>
@@ -1233,7 +1233,7 @@
       <c r="D5" s="55">
         <v>43253</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1248,7 +1248,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="56"/>
-      <c r="E6" s="33"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
@@ -1263,13 +1263,13 @@
         <v>26</v>
       </c>
       <c r="D7" s="56"/>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="62" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="71" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1280,11 +1280,11 @@
         <v>27</v>
       </c>
       <c r="D8" s="56"/>
-      <c r="E8" s="43"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="46"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="56"/>
@@ -1293,11 +1293,11 @@
         <v>28</v>
       </c>
       <c r="D9" s="56"/>
-      <c r="E9" s="43"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="46"/>
+      <c r="G9" s="72"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A10" s="57"/>
@@ -1306,11 +1306,11 @@
         <v>29</v>
       </c>
       <c r="D10" s="57"/>
-      <c r="E10" s="44"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="46"/>
+      <c r="G10" s="72"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="9"/>
@@ -1318,8 +1318,8 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="22"/>
@@ -1328,7 +1328,7 @@
       <c r="D12" s="23"/>
       <c r="E12" s="23"/>
       <c r="F12" s="25"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A13" s="55">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="2"/>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="10"/>
@@ -1382,8 +1382,8 @@
         <v>37</v>
       </c>
       <c r="D16" s="57"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="53" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="24"/>
@@ -1401,7 +1401,7 @@
       <c r="A18" s="55">
         <v>42891</v>
       </c>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1418,7 +1418,7 @@
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
       <c r="A19" s="56"/>
-      <c r="B19" s="59"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1431,26 +1431,26 @@
     </row>
     <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A20" s="56"/>
-      <c r="B20" s="59"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="56"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="57"/>
-      <c r="B21" s="60"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="53" t="s">
+      <c r="F21" s="40" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="10"/>
@@ -1468,7 +1468,7 @@
       <c r="A23" s="55">
         <v>43258</v>
       </c>
-      <c r="B23" s="58" t="s">
+      <c r="B23" s="49" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1478,14 +1478,14 @@
         <v>43259</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="63" t="s">
+      <c r="F23" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="56"/>
-      <c r="B24" s="59"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
@@ -1498,24 +1498,24 @@
     </row>
     <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A25" s="56"/>
-      <c r="B25" s="59"/>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="69" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="56"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="31" t="s">
+      <c r="E25" s="66"/>
+      <c r="F25" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A26" s="57"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="57"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="33"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1531,7 +1531,7 @@
       <c r="A28" s="55">
         <v>43260</v>
       </c>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="49" t="s">
         <v>54</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -1548,33 +1548,33 @@
     </row>
     <row r="29" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A29" s="56"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="58" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="49" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="56"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="31" t="s">
+      <c r="E29" s="66"/>
+      <c r="F29" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="56"/>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="56"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A31" s="57"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="57"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="33"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1604,8 +1604,8 @@
       <c r="D34" s="55">
         <v>43263</v>
       </c>
-      <c r="E34" s="39"/>
-      <c r="F34" s="42" t="s">
+      <c r="E34" s="66"/>
+      <c r="F34" s="62" t="s">
         <v>62</v>
       </c>
       <c r="G34" s="2"/>
@@ -1613,28 +1613,28 @@
     <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A35" s="56"/>
       <c r="B35" s="56"/>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="65" t="s">
         <v>67</v>
       </c>
       <c r="D35" s="56"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="43"/>
+      <c r="E35" s="67"/>
+      <c r="F35" s="63"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A36" s="56"/>
       <c r="B36" s="57"/>
-      <c r="C36" s="60"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="56"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="44"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="64"/>
     </row>
     <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A37" s="56"/>
       <c r="B37" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="68" t="s">
+      <c r="C37" s="45" t="s">
         <v>61</v>
       </c>
       <c r="D37" s="56"/>
@@ -1664,7 +1664,7 @@
       <c r="B39" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="69" t="s">
+      <c r="C39" s="46" t="s">
         <v>64</v>
       </c>
       <c r="D39" s="57"/>
@@ -1675,12 +1675,12 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="51"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1817,7 +1817,7 @@
         <v>43265</v>
       </c>
       <c r="E49" s="11"/>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="29" t="s">
         <v>38</v>
       </c>
       <c r="G49" s="21"/>
@@ -1840,14 +1840,14 @@
     <row r="51" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A51" s="56"/>
       <c r="B51" s="56"/>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="55">
         <v>43265</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="31" t="s">
+      <c r="F51" s="52" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="21"/>
@@ -1855,90 +1855,123 @@
     <row r="52" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A52" s="56"/>
       <c r="B52" s="56"/>
-      <c r="C52" s="59"/>
+      <c r="C52" s="50"/>
       <c r="D52" s="56"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="32"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A53" s="56"/>
       <c r="B53" s="56"/>
-      <c r="C53" s="60"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="57"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="33"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F54"/>
     </row>
     <row r="55" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="73">
+      <c r="A55" s="58">
         <v>43266</v>
       </c>
-      <c r="B55" s="74" t="s">
+      <c r="B55" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="D55" s="73">
+      <c r="D55" s="58">
         <v>43269</v>
       </c>
-      <c r="E55" s="70"/>
+      <c r="E55" s="47"/>
       <c r="F55" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G55" s="70"/>
+      <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="71"/>
-      <c r="B56" s="75" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="D56" s="71"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="75" t="s">
+      <c r="D56" s="59"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G56" s="70"/>
+      <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="70"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="70"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="71"/>
-      <c r="E58" s="70"/>
-      <c r="F58" s="71"/>
-      <c r="G58" s="70"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="70"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="70"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="47"/>
     </row>
     <row r="60" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F60"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="B34:B36"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="F51:F53"/>
     <mergeCell ref="D51:D53"/>
@@ -1949,39 +1982,6 @@
     <mergeCell ref="F56:F59"/>
     <mergeCell ref="B41:B53"/>
     <mergeCell ref="A41:A53"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>备注：开始日期或者结束日期可以是同一天</t>
   </si>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>完成40%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>完成地区影院查询、场次查询</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -298,6 +294,9 @@
   <si>
     <t>全体组员</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
 </sst>
 </file>
@@ -759,6 +758,45 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -768,76 +806,37 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1159,26 +1158,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1221,19 +1220,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="55">
+      <c r="A5" s="59">
         <v>43253</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="59" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="59">
         <v>43253</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="55" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1242,75 +1241,75 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="54"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="60"/>
+      <c r="B7" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="62" t="s">
-        <v>53</v>
+      <c r="D7" s="60"/>
+      <c r="E7" s="52" t="s">
+        <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="71" t="s">
+      <c r="G7" s="57" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="72"/>
+      <c r="G8" s="58"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="63"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="72"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="64"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="72"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="9"/>
@@ -1331,58 +1330,66 @@
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="55">
+      <c r="A13" s="59">
         <v>43255</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="59" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="59">
         <v>43255</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F14" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="17" t="s">
+        <v>72</v>
+      </c>
       <c r="F15" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="39" t="s">
+        <v>72</v>
+      </c>
       <c r="F16" s="40" t="s">
         <v>22</v>
       </c>
@@ -1398,58 +1405,66 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="59">
         <v>42891</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="62" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="55">
-        <v>43257</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="D18" s="59">
+        <v>43256</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F18" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="2"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="F20" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="51"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="10"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="10" t="s">
+        <v>72</v>
+      </c>
       <c r="F21" s="40" t="s">
         <v>22</v>
       </c>
@@ -1465,16 +1480,16 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="55">
-        <v>43258</v>
-      </c>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="59">
+        <v>43257</v>
+      </c>
+      <c r="B23" s="62" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="59">
         <v>43259</v>
       </c>
       <c r="E23" s="2"/>
@@ -1484,12 +1499,12 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="56"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="2"/>
       <c r="F24" s="13" t="s">
         <v>39</v>
@@ -1497,25 +1512,25 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="69" t="s">
+      <c r="A25" s="60"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="52" t="s">
+      <c r="D25" s="60"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="55" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="57"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="61"/>
       <c r="E26" s="68"/>
-      <c r="F26" s="54"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1528,16 +1543,16 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="59">
         <v>43260</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="55">
+      <c r="D28" s="59">
         <v>43261</v>
       </c>
       <c r="E28" s="2"/>
@@ -1547,34 +1562,34 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="52" t="s">
+      <c r="A29" s="60"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="55" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="57"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="61"/>
       <c r="E31" s="68"/>
-      <c r="F31" s="54"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1592,52 +1607,52 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="59">
         <v>43262</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="59">
+        <v>43263</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="60"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="60"/>
+      <c r="B37" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="55">
-        <v>43263</v>
-      </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="64"/>
-    </row>
-    <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
         <v>38</v>
@@ -1645,14 +1660,14 @@
       <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="56"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="56"/>
+        <v>62</v>
+      </c>
+      <c r="D38" s="60"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
         <v>38</v>
@@ -1660,14 +1675,14 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="57"/>
+        <v>63</v>
+      </c>
+      <c r="D39" s="61"/>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
         <v>38</v>
@@ -1684,11 +1699,11 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="55">
+      <c r="A41" s="59">
         <v>43264</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>66</v>
+      <c r="B41" s="59" t="s">
+        <v>65</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>15</v>
@@ -1703,8 +1718,8 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
@@ -1718,8 +1733,8 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
@@ -1733,8 +1748,8 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
       <c r="C44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1748,8 +1763,8 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
       <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
@@ -1763,8 +1778,8 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
       <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1778,8 +1793,8 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
@@ -1793,8 +1808,8 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
@@ -1808,8 +1823,8 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
       <c r="C49" s="15" t="s">
         <v>18</v>
       </c>
@@ -1823,8 +1838,8 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
       <c r="C50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1838,52 +1853,52 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="49" t="s">
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="59">
         <v>43265</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="52" t="s">
+      <c r="F51" s="55" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="56"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="60"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="53"/>
+      <c r="F52" s="69"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="61"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="54"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F54"/>
     </row>
     <row r="55" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="58">
+      <c r="A55" s="72">
         <v>43266</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="58">
+        <v>70</v>
+      </c>
+      <c r="D55" s="72">
         <v>43269</v>
       </c>
       <c r="E55" s="47"/>
@@ -1893,45 +1908,45 @@
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="61" t="s">
+      <c r="A56" s="73"/>
+      <c r="B56" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D56" s="59"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="61" t="s">
-        <v>72</v>
+      <c r="F56" s="75" t="s">
+        <v>71</v>
       </c>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="59"/>
+      <c r="F57" s="73"/>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="59"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="60"/>
+      <c r="F59" s="74"/>
       <c r="G59" s="47"/>
     </row>
     <row r="60" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1939,25 +1954,16 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="B41:B53"/>
+    <mergeCell ref="A41:A53"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E25:E26"/>
@@ -1972,16 +1978,25 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="B41:B53"/>
-    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -758,13 +758,52 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,10 +815,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -787,57 +838,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1158,26 +1158,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1220,19 +1220,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="59">
+      <c r="A5" s="55">
         <v>43253</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="55" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="55">
         <v>43253</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="52" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1241,75 +1241,75 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="60"/>
-      <c r="B7" s="59" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="55" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="65" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="G7" s="74" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="60"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="58"/>
+      <c r="G8" s="75"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="58"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="61"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="58"/>
+      <c r="G10" s="75"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="9"/>
@@ -1330,16 +1330,16 @@
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="59">
+      <c r="A13" s="55">
         <v>43255</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="59">
+      <c r="D13" s="55">
         <v>43255</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1351,12 +1351,12 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="60"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="60"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="2" t="s">
         <v>72</v>
       </c>
@@ -1366,12 +1366,12 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="60"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="60"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="17" t="s">
         <v>72</v>
       </c>
@@ -1381,12 +1381,12 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="61"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="39" t="s">
         <v>72</v>
       </c>
@@ -1405,16 +1405,16 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="59">
+      <c r="A18" s="55">
         <v>42891</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="59">
+      <c r="D18" s="55">
         <v>43256</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1426,12 +1426,12 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="60"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="60"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="2" t="s">
         <v>72</v>
       </c>
@@ -1441,12 +1441,12 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="60"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="2" t="s">
         <v>72</v>
       </c>
@@ -1456,12 +1456,12 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="61"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="10" t="s">
         <v>72</v>
       </c>
@@ -1480,57 +1480,61 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="59">
+      <c r="A23" s="55">
         <v>43257</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="49" t="s">
         <v>50</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D23" s="59">
+      <c r="D23" s="55">
         <v>43259</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="17">
+        <v>0.5</v>
+      </c>
       <c r="F23" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="60"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="2"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="17">
+        <v>0.3</v>
+      </c>
       <c r="F24" s="13" t="s">
         <v>39</v>
       </c>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="60"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="65" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="55" t="s">
+      <c r="D25" s="56"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="61"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="56"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="70"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="54"/>
       <c r="G26" s="10"/>
     </row>
     <row r="27" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1543,16 +1547,16 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="59">
+      <c r="A28" s="55">
         <v>43260</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="49" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="55">
         <v>43261</v>
       </c>
       <c r="E28" s="2"/>
@@ -1562,34 +1566,34 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="60"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="62" t="s">
+      <c r="A29" s="56"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="55" t="s">
+      <c r="D29" s="56"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="52" t="s">
         <v>47</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="60"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="69"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="53"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="61"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="56"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="54"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1607,52 +1611,52 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="59">
+      <c r="A34" s="55">
         <v>43262</v>
       </c>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="55" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="59">
+      <c r="D34" s="55">
         <v>43263</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="52" t="s">
+      <c r="E34" s="62"/>
+      <c r="F34" s="65" t="s">
         <v>61</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="60"/>
-      <c r="C35" s="71" t="s">
+      <c r="A35" s="56"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="53"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="60"/>
-      <c r="B36" s="61"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="54"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="67"/>
     </row>
     <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="60"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="60"/>
+      <c r="D37" s="56"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
         <v>38</v>
@@ -1660,14 +1664,14 @@
       <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="56"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
         <v>38</v>
@@ -1675,14 +1679,14 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="61"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="61"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
         <v>38</v>
@@ -1699,10 +1703,10 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="59">
+      <c r="A41" s="55">
         <v>43264</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="55" t="s">
         <v>65</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -1718,8 +1722,8 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
@@ -1733,8 +1737,8 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="60"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
@@ -1748,8 +1752,8 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
       <c r="C44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1763,8 +1767,8 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="60"/>
-      <c r="B45" s="60"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
@@ -1778,8 +1782,8 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
       <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1793,8 +1797,8 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="60"/>
-      <c r="B47" s="60"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
@@ -1808,8 +1812,8 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
@@ -1823,8 +1827,8 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="60"/>
-      <c r="B49" s="60"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="15" t="s">
         <v>18</v>
       </c>
@@ -1838,8 +1842,8 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="60"/>
-      <c r="B50" s="60"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1853,43 +1857,43 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="60"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="62" t="s">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D51" s="55">
         <v>43265</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="55" t="s">
+      <c r="F51" s="52" t="s">
         <v>39</v>
       </c>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="60"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="69"/>
+      <c r="F52" s="53"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="60"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="61"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="57"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="56"/>
+      <c r="F53" s="54"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F54"/>
     </row>
     <row r="55" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="72">
+      <c r="A55" s="58">
         <v>43266</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -1898,7 +1902,7 @@
       <c r="C55" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="58">
         <v>43269</v>
       </c>
       <c r="E55" s="47"/>
@@ -1908,45 +1912,45 @@
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="75" t="s">
+      <c r="A56" s="59"/>
+      <c r="B56" s="61" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D56" s="73"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="61" t="s">
         <v>71</v>
       </c>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="73"/>
+      <c r="F57" s="59"/>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="73"/>
+      <c r="F58" s="59"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="74"/>
+      <c r="F59" s="60"/>
       <c r="G59" s="47"/>
     </row>
     <row r="60" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1954,16 +1958,25 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="B41:B53"/>
-    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E25:E26"/>
@@ -1978,25 +1991,16 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="B41:B53"/>
+    <mergeCell ref="A41:A53"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
   <si>
     <t>备注：开始日期或者结束日期可以是同一天</t>
   </si>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>还有部分项目难点尚未提出和发现，还需进一步分析</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库设计</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -297,6 +293,18 @@
   </si>
   <si>
     <t>完成</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成50%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案设计已完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -610,7 +618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -759,6 +767,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,77 +814,41 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1143,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1158,26 +1169,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
+      <c r="A1" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1220,19 +1231,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="55">
+      <c r="A5" s="49">
         <v>43253</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="49">
         <v>43253</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="E5" s="58" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1241,75 +1252,73 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="54"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="56"/>
-      <c r="B7" s="55" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="65" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="74" t="s">
-        <v>33</v>
-      </c>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="56"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="66"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="56"/>
-      <c r="E9" s="66"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="75"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="67"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="9"/>
@@ -1330,20 +1339,20 @@
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="55">
+      <c r="A13" s="49">
         <v>43255</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="55">
+      <c r="D13" s="49">
         <v>43255</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>23</v>
@@ -1351,44 +1360,44 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="56"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="56"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="4" t="s">
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F16" s="40" t="s">
         <v>22</v>
@@ -1405,20 +1414,20 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="49">
         <v>42891</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="55">
+      <c r="D18" s="49">
         <v>43256</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>22</v>
@@ -1426,44 +1435,44 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="56"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="51"/>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A20" s="51"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="D20" s="51"/>
+      <c r="E20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="56"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="4" t="s">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A21" s="50"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="57"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="40" t="s">
         <v>22</v>
@@ -1480,62 +1489,66 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="55">
+      <c r="A23" s="49">
         <v>43257</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="55">
+      <c r="D23" s="49">
         <v>43259</v>
       </c>
-      <c r="E23" s="17">
-        <v>0.5</v>
+      <c r="E23" s="17" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="56"/>
-      <c r="B24" s="50"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="51"/>
+      <c r="E24" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A25" s="51"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="51"/>
+      <c r="E25" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="17">
-        <v>0.3</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="56"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="G25" s="76" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="57"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="10"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="6"/>
@@ -1547,53 +1560,53 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="49">
         <v>43260</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="55">
+      <c r="D28" s="49">
         <v>43261</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="56"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="52" t="s">
-        <v>47</v>
+      <c r="A29" s="51"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="62" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="51"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="58" t="s">
+        <v>46</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="56"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="53"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="69"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="54"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1611,85 +1624,85 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="49">
         <v>43262</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="49">
+        <v>43263</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="51"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="57"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
+      <c r="A37" s="51"/>
+      <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C37" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="55">
-        <v>43263</v>
-      </c>
-      <c r="E34" s="62"/>
-      <c r="F34" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="56"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="56"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="51"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="67"/>
-    </row>
-    <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="56"/>
-      <c r="B37" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="56"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="56"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D38" s="56"/>
+        <v>61</v>
+      </c>
+      <c r="D38" s="51"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="57"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="57"/>
+        <v>62</v>
+      </c>
+      <c r="D39" s="50"/>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G39" s="21"/>
     </row>
@@ -1703,11 +1716,11 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="55">
+      <c r="A41" s="49">
         <v>43264</v>
       </c>
-      <c r="B41" s="55" t="s">
-        <v>65</v>
+      <c r="B41" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>15</v>
@@ -1717,13 +1730,13 @@
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="56"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
@@ -1732,13 +1745,13 @@
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="56"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
@@ -1747,13 +1760,13 @@
       </c>
       <c r="E43" s="11"/>
       <c r="F43" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1762,13 +1775,13 @@
       </c>
       <c r="E44" s="11"/>
       <c r="F44" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
@@ -1777,13 +1790,13 @@
       </c>
       <c r="E45" s="11"/>
       <c r="F45" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="56"/>
-      <c r="B46" s="56"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1792,13 +1805,13 @@
       </c>
       <c r="E46" s="11"/>
       <c r="F46" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
@@ -1807,13 +1820,13 @@
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
@@ -1822,13 +1835,13 @@
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="56"/>
-      <c r="B49" s="56"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="15" t="s">
         <v>18</v>
       </c>
@@ -1837,13 +1850,13 @@
       </c>
       <c r="E49" s="11"/>
       <c r="F49" s="29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1852,131 +1865,123 @@
       </c>
       <c r="E50" s="11"/>
       <c r="F50" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="56"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="49" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="55">
+      <c r="D51" s="49">
         <v>43265</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="52" t="s">
-        <v>39</v>
+      <c r="F51" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="56"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="53"/>
+      <c r="F52" s="69"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="51"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="54"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F54"/>
     </row>
     <row r="55" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="58">
+      <c r="A55" s="72">
         <v>43266</v>
       </c>
       <c r="B55" s="48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D55" s="58">
+        <v>69</v>
+      </c>
+      <c r="D55" s="72">
         <v>43269</v>
       </c>
       <c r="E55" s="47"/>
       <c r="F55" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="61" t="s">
+      <c r="A56" s="73"/>
+      <c r="B56" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="C56" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="59"/>
+      <c r="D56" s="73"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="61" t="s">
-        <v>71</v>
+      <c r="F56" s="75" t="s">
+        <v>70</v>
       </c>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="59"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
+      <c r="A57" s="73"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="59"/>
+      <c r="F57" s="73"/>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="59"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
+      <c r="A58" s="73"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="73"/>
+      <c r="D58" s="73"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="59"/>
+      <c r="F58" s="73"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="60"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="74"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="60"/>
+      <c r="F59" s="74"/>
       <c r="G59" s="47"/>
     </row>
     <row r="60" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F60"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
+  <mergeCells count="44">
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="A55:A59"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="B41:B53"/>
+    <mergeCell ref="A41:A53"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="E25:E26"/>
@@ -1991,16 +1996,25 @@
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="E34:E36"/>
     <mergeCell ref="B34:B36"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="A55:A59"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="F56:F59"/>
-    <mergeCell ref="B41:B53"/>
-    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>备注：开始日期或者结束日期可以是同一天</t>
   </si>
@@ -299,11 +299,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>完成50%</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>方案设计已完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -766,22 +766,58 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -790,13 +826,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -804,51 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1169,26 +1169,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1231,19 +1231,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="49">
+      <c r="A5" s="57">
         <v>43253</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="57" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="57">
         <v>43253</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="54" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1252,73 +1252,73 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="51"/>
-      <c r="B6" s="50"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="59"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="58"/>
+      <c r="B7" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="55" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="67" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="60"/>
+      <c r="G7" s="75"/>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="56"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="61"/>
+      <c r="G8" s="76"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="61"/>
+      <c r="G9" s="76"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="50"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="57"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="61"/>
+      <c r="G10" s="76"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="9"/>
@@ -1339,16 +1339,16 @@
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="49">
+      <c r="A13" s="57">
         <v>43255</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="57" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="57">
         <v>43255</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1360,12 +1360,12 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
@@ -1375,12 +1375,12 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="17" t="s">
         <v>71</v>
       </c>
@@ -1390,12 +1390,12 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
+      <c r="A16" s="59"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="50"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="39" t="s">
         <v>71</v>
       </c>
@@ -1414,16 +1414,16 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="49">
+      <c r="A18" s="57">
         <v>42891</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="51" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="57">
         <v>43256</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1435,12 +1435,12 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="51"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="58"/>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1450,12 +1450,12 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="51"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="58"/>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1465,12 +1465,12 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="50"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="50"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="10" t="s">
         <v>71</v>
       </c>
@@ -1489,16 +1489,16 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="49">
+      <c r="A23" s="57">
         <v>43257</v>
       </c>
-      <c r="B23" s="62" t="s">
+      <c r="B23" s="51" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="57">
         <v>43259</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -1510,12 +1510,12 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="51"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="52"/>
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="17" t="s">
         <v>72</v>
       </c>
@@ -1525,30 +1525,30 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="51"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="65" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="51"/>
-      <c r="E25" s="67" t="s">
+      <c r="D25" s="58"/>
+      <c r="E25" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="76" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="50"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="57"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="50"/>
     </row>
     <row r="27" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="6"/>
@@ -1560,53 +1560,55 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="49">
+      <c r="A28" s="57">
         <v>43260</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="51" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="57">
         <v>43261</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="F28" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="51"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="62" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="51"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="58" t="s">
+      <c r="D29" s="58"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="54" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="51"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="69"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="55"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="59"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1624,52 +1626,52 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="49">
+      <c r="A34" s="57">
         <v>43262</v>
       </c>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="57" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="49">
+      <c r="D34" s="57">
         <v>43263</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="55" t="s">
+      <c r="E34" s="64"/>
+      <c r="F34" s="67" t="s">
         <v>60</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="71" t="s">
+      <c r="A35" s="58"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="69" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="51"/>
-      <c r="E35" s="70"/>
-      <c r="F35" s="56"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="57"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="51"/>
+      <c r="A37" s="58"/>
       <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="51"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
         <v>37</v>
@@ -1677,14 +1679,14 @@
       <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="58"/>
       <c r="B38" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="51"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
         <v>37</v>
@@ -1692,14 +1694,14 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="50"/>
+      <c r="A39" s="59"/>
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="50"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
         <v>37</v>
@@ -1716,10 +1718,10 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="49">
+      <c r="A41" s="57">
         <v>43264</v>
       </c>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -1735,8 +1737,8 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
@@ -1750,8 +1752,8 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
@@ -1765,8 +1767,8 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
       <c r="C44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1780,8 +1782,8 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="51"/>
-      <c r="B45" s="51"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
       <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
@@ -1795,8 +1797,8 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
       <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1810,8 +1812,8 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
@@ -1825,8 +1827,8 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
@@ -1840,8 +1842,8 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="51"/>
-      <c r="B49" s="51"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="15" t="s">
         <v>18</v>
       </c>
@@ -1855,8 +1857,8 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="51"/>
-      <c r="B50" s="51"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1870,43 +1872,43 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="62" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="49">
+      <c r="D51" s="57">
         <v>43265</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="58" t="s">
+      <c r="F51" s="54" t="s">
         <v>38</v>
       </c>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="51"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="69"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="50"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="59"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F54"/>
     </row>
     <row r="55" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="72">
+      <c r="A55" s="60">
         <v>43266</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -1915,7 +1917,7 @@
       <c r="C55" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="72">
+      <c r="D55" s="60">
         <v>43269</v>
       </c>
       <c r="E55" s="47"/>
@@ -1925,45 +1927,45 @@
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="73"/>
-      <c r="B56" s="75" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="75" t="s">
+      <c r="C56" s="63" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="73"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="75" t="s">
+      <c r="F56" s="63" t="s">
         <v>70</v>
       </c>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="73"/>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="A57" s="61"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="73"/>
+      <c r="F57" s="61"/>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="73"/>
-      <c r="B58" s="73"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="73"/>
+      <c r="F58" s="61"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="74"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="74"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="62"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="74"/>
+      <c r="F59" s="62"/>
       <c r="G59" s="47"/>
     </row>
     <row r="60" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1971,6 +1973,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E34:E36"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="F51:F53"/>
@@ -1987,34 +2017,6 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E34:E36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
   <si>
     <t>备注：开始日期或者结束日期可以是同一天</t>
   </si>
@@ -766,39 +766,78 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -810,45 +849,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1169,26 +1169,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
     </row>
     <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
     </row>
     <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="1" t="s">
@@ -1231,19 +1231,19 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="57">
+      <c r="A5" s="49">
         <v>43253</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="49">
         <v>43253</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="58" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="13" t="s">
@@ -1252,73 +1252,73 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A7" s="58"/>
-      <c r="B7" s="57" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="67" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="55" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="75"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="68"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="76"/>
+      <c r="G8" s="61"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="58"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="61"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="76"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A11" s="9"/>
@@ -1339,16 +1339,16 @@
       <c r="G12" s="36"/>
     </row>
     <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A13" s="57">
+      <c r="A13" s="49">
         <v>43255</v>
       </c>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="57">
+      <c r="D13" s="49">
         <v>43255</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -1360,12 +1360,12 @@
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A14" s="58"/>
-      <c r="B14" s="58"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="58"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="2" t="s">
         <v>71</v>
       </c>
@@ -1375,12 +1375,12 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" s="9" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A15" s="58"/>
-      <c r="B15" s="58"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="58"/>
+      <c r="D15" s="51"/>
       <c r="E15" s="17" t="s">
         <v>71</v>
       </c>
@@ -1390,12 +1390,12 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="39" t="s">
         <v>71</v>
       </c>
@@ -1414,16 +1414,16 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A18" s="57">
+      <c r="A18" s="49">
         <v>42891</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="62" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="49">
         <v>43256</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1435,12 +1435,12 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A19" s="58"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="58"/>
+      <c r="D19" s="51"/>
       <c r="E19" s="2" t="s">
         <v>71</v>
       </c>
@@ -1450,12 +1450,12 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A20" s="58"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="58"/>
+      <c r="D20" s="51"/>
       <c r="E20" s="2" t="s">
         <v>71</v>
       </c>
@@ -1465,12 +1465,12 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A21" s="59"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="10" t="s">
         <v>71</v>
       </c>
@@ -1489,16 +1489,16 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A23" s="57">
+      <c r="A23" s="49">
         <v>43257</v>
       </c>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="62" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="57">
+      <c r="D23" s="49">
         <v>43259</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -1510,12 +1510,12 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A24" s="58"/>
-      <c r="B24" s="52"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="58"/>
+      <c r="D24" s="51"/>
       <c r="E24" s="17" t="s">
         <v>72</v>
       </c>
@@ -1525,30 +1525,30 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A25" s="58"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="64" t="s">
+      <c r="D25" s="51"/>
+      <c r="E25" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="G25" s="49" t="s">
+      <c r="G25" s="72" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A26" s="59"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="50"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="57"/>
     </row>
     <row r="27" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="6"/>
@@ -1560,16 +1560,16 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="7" customFormat="1" ht="19.899999999999999" customHeight="1">
-      <c r="A28" s="57">
+      <c r="A28" s="49">
         <v>43260</v>
       </c>
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="62" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="57">
+      <c r="D28" s="49">
         <v>43261</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -1581,34 +1581,36 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A29" s="58"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="51" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="54" t="s">
+      <c r="D29" s="51"/>
+      <c r="E29" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="58" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="55"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="67"/>
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A31" s="59"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="56"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="10"/>
     </row>
     <row r="32" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1626,52 +1628,52 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A34" s="57">
+      <c r="A34" s="49">
         <v>43262</v>
       </c>
-      <c r="B34" s="57" t="s">
+      <c r="B34" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="57">
+      <c r="D34" s="49">
         <v>43263</v>
       </c>
-      <c r="E34" s="64"/>
-      <c r="F34" s="67" t="s">
+      <c r="E34" s="68"/>
+      <c r="F34" s="55" t="s">
         <v>60</v>
       </c>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A35" s="58"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="69" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="68"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="50"/>
+      <c r="A36" s="51"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="57"/>
     </row>
     <row r="37" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A37" s="58"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="58"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="11"/>
       <c r="F37" s="13" t="s">
         <v>37</v>
@@ -1679,14 +1681,14 @@
       <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A38" s="58"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="D38" s="58"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="11"/>
       <c r="F38" s="13" t="s">
         <v>37</v>
@@ -1694,14 +1696,14 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A39" s="59"/>
+      <c r="A39" s="50"/>
       <c r="B39" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C39" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="59"/>
+      <c r="D39" s="50"/>
       <c r="E39" s="11"/>
       <c r="F39" s="13" t="s">
         <v>37</v>
@@ -1718,10 +1720,10 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A41" s="57">
+      <c r="A41" s="49">
         <v>43264</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C41" s="12" t="s">
@@ -1737,8 +1739,8 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A42" s="58"/>
-      <c r="B42" s="58"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
@@ -1752,8 +1754,8 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
@@ -1767,8 +1769,8 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A44" s="58"/>
-      <c r="B44" s="58"/>
+      <c r="A44" s="51"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="12" t="s">
         <v>20</v>
       </c>
@@ -1782,8 +1784,8 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A45" s="58"/>
-      <c r="B45" s="58"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="12" t="s">
         <v>13</v>
       </c>
@@ -1797,8 +1799,8 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="12" t="s">
         <v>14</v>
       </c>
@@ -1812,8 +1814,8 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="15" t="s">
         <v>16</v>
       </c>
@@ -1827,8 +1829,8 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="15" t="s">
         <v>17</v>
       </c>
@@ -1842,8 +1844,8 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A49" s="58"/>
-      <c r="B49" s="58"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="15" t="s">
         <v>18</v>
       </c>
@@ -1857,8 +1859,8 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A50" s="58"/>
-      <c r="B50" s="58"/>
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="15" t="s">
         <v>21</v>
       </c>
@@ -1872,43 +1874,43 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A51" s="58"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="51" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="57">
+      <c r="D51" s="49">
         <v>43265</v>
       </c>
       <c r="E51" s="11"/>
-      <c r="F51" s="54" t="s">
+      <c r="F51" s="58" t="s">
         <v>38</v>
       </c>
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="58"/>
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="13"/>
-      <c r="F52" s="55"/>
+      <c r="F52" s="67"/>
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="59"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="50"/>
       <c r="E53" s="11"/>
-      <c r="F53" s="56"/>
+      <c r="F53" s="59"/>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="19.899999999999999" customHeight="1">
       <c r="F54"/>
     </row>
     <row r="55" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A55" s="60">
+      <c r="A55" s="73">
         <v>43266</v>
       </c>
       <c r="B55" s="48" t="s">
@@ -1917,7 +1919,7 @@
       <c r="C55" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D55" s="60">
+      <c r="D55" s="73">
         <v>43269</v>
       </c>
       <c r="E55" s="47"/>
@@ -1927,45 +1929,45 @@
       <c r="G55" s="47"/>
     </row>
     <row r="56" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A56" s="61"/>
-      <c r="B56" s="63" t="s">
+      <c r="A56" s="74"/>
+      <c r="B56" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="63" t="s">
+      <c r="C56" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="61"/>
+      <c r="D56" s="74"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="76" t="s">
         <v>70</v>
       </c>
       <c r="G56" s="47"/>
     </row>
     <row r="57" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A57" s="61"/>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="61"/>
+      <c r="F57" s="74"/>
       <c r="G57" s="47"/>
     </row>
     <row r="58" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A58" s="61"/>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
       <c r="E58" s="47"/>
-      <c r="F58" s="61"/>
+      <c r="F58" s="74"/>
       <c r="G58" s="47"/>
     </row>
     <row r="59" spans="1:7" ht="19.899999999999999" customHeight="1">
-      <c r="A59" s="62"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="62"/>
+      <c r="A59" s="75"/>
+      <c r="B59" s="75"/>
+      <c r="C59" s="75"/>
+      <c r="D59" s="75"/>
       <c r="E59" s="47"/>
-      <c r="F59" s="62"/>
+      <c r="F59" s="75"/>
       <c r="G59" s="47"/>
     </row>
     <row r="60" spans="1:7" ht="19.899999999999999" customHeight="1">
@@ -1973,34 +1975,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="D5:D10"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="D34:D39"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E34:E36"/>
     <mergeCell ref="G25:G26"/>
     <mergeCell ref="C51:C53"/>
     <mergeCell ref="F51:F53"/>
@@ -2017,6 +1991,34 @@
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="B28:B31"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="D34:D39"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="D5:D10"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="G7:G10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/项目进度安排.xlsx
+++ b/文档/项目进度安排.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>备注：开始日期或者结束日期可以是同一天</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成30%</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +630,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +861,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1154,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1640,7 +1655,9 @@
       <c r="D34" s="49">
         <v>43263</v>
       </c>
-      <c r="E34" s="68"/>
+      <c r="E34" s="77" t="s">
+        <v>75</v>
+      </c>
       <c r="F34" s="55" t="s">
         <v>60</v>
       </c>
@@ -1653,7 +1670,9 @@
         <v>65</v>
       </c>
       <c r="D35" s="51"/>
-      <c r="E35" s="69"/>
+      <c r="E35" s="69" t="s">
+        <v>76</v>
+      </c>
       <c r="F35" s="56"/>
       <c r="G35" s="2"/>
     </row>
@@ -1674,7 +1693,9 @@
         <v>59</v>
       </c>
       <c r="D37" s="51"/>
-      <c r="E37" s="11"/>
+      <c r="E37" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="F37" s="13" t="s">
         <v>37</v>
       </c>
@@ -1689,7 +1710,9 @@
         <v>61</v>
       </c>
       <c r="D38" s="51"/>
-      <c r="E38" s="11"/>
+      <c r="E38" s="11" t="s">
+        <v>77</v>
+      </c>
       <c r="F38" s="13" t="s">
         <v>37</v>
       </c>
@@ -1704,7 +1727,9 @@
         <v>62</v>
       </c>
       <c r="D39" s="50"/>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>75</v>
+      </c>
       <c r="F39" s="13" t="s">
         <v>37</v>
       </c>
@@ -1996,7 +2021,7 @@
     <mergeCell ref="F34:F36"/>
     <mergeCell ref="D34:D39"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="E34:E36"/>
+    <mergeCell ref="E35:E36"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="D18:D21"/>
